--- a/SQLInsertDataDefault.xlsx
+++ b/SQLInsertDataDefault.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QuanLyQuanMyCay\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="200">
   <si>
     <t>Khach01</t>
   </si>
@@ -2127,7 +2127,7 @@
   <dimension ref="E5:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="D16" sqref="D16:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2287,158 +2287,48 @@
       </c>
     </row>
     <row r="16" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G16">
-        <v>300</v>
-      </c>
-      <c r="H16" s="9">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E17" t="s">
-        <v>190</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G17">
-        <v>300</v>
-      </c>
-      <c r="H17" s="9">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E18" t="s">
-        <v>191</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18" s="9">
-        <v>1400000</v>
-      </c>
-    </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E19" t="s">
-        <v>192</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G19">
-        <v>5</v>
-      </c>
-      <c r="H19" s="9">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E20" t="s">
-        <v>193</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G20">
-        <v>200</v>
-      </c>
-      <c r="H20" s="9">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="21" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E21" t="s">
-        <v>195</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G21">
-        <v>100</v>
-      </c>
-      <c r="H21" s="9">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="22" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E22" t="s">
-        <v>196</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="G22">
-        <v>300</v>
-      </c>
-      <c r="H22" s="9">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E23" t="s">
-        <v>197</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G23">
-        <v>300</v>
-      </c>
-      <c r="H23" s="9">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="24" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E24" t="s">
-        <v>198</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G24">
-        <v>300</v>
-      </c>
-      <c r="H24" s="9">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="25" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E25" t="s">
-        <v>189</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G25">
-        <v>300</v>
-      </c>
-      <c r="H25" s="9">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="26" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="G26">
-        <v>300</v>
-      </c>
-      <c r="H26" s="9">
-        <v>90000</v>
-      </c>
+      <c r="F16" s="2"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="2"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="2"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="2"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="2"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="2"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="2"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="2"/>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="2"/>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="2"/>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="2"/>
+      <c r="H26" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SQLInsertDataDefault.xlsx
+++ b/SQLInsertDataDefault.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QuanLyQuanMyCay\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="200">
   <si>
     <t>Khach01</t>
   </si>
@@ -2127,7 +2127,7 @@
   <dimension ref="E5:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:I26"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2287,48 +2287,158 @@
       </c>
     </row>
     <row r="16" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="2"/>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="2"/>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="2"/>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="2"/>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="2"/>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="2"/>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="2"/>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="2"/>
-      <c r="H23" s="9"/>
-    </row>
-    <row r="24" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="2"/>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="2"/>
-      <c r="H25" s="9"/>
-    </row>
-    <row r="26" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F26" s="2"/>
-      <c r="H26" s="9"/>
+      <c r="E16" t="s">
+        <v>189</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G16">
+        <v>300</v>
+      </c>
+      <c r="H16" s="9">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>190</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G17">
+        <v>300</v>
+      </c>
+      <c r="H17" s="9">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>191</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" s="9">
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>192</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19" s="9">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>193</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G20">
+        <v>200</v>
+      </c>
+      <c r="H20" s="9">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>195</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G21">
+        <v>100</v>
+      </c>
+      <c r="H21" s="9">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="22" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22">
+        <v>300</v>
+      </c>
+      <c r="H22" s="9">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>197</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G23">
+        <v>300</v>
+      </c>
+      <c r="H23" s="9">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="24" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>198</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G24">
+        <v>300</v>
+      </c>
+      <c r="H24" s="9">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="25" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>189</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G25">
+        <v>300</v>
+      </c>
+      <c r="H25" s="9">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="26" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>190</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G26">
+        <v>300</v>
+      </c>
+      <c r="H26" s="9">
+        <v>90000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
